--- a/Ütemterv.xlsx
+++ b/Ütemterv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menes.megyer.zeteny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212E70FB-EED7-4CCE-AFAB-26C94A66470D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC8E1C9-3E92-48D8-9E4E-F8F01FE25EC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{BA56899A-3944-48F2-97D3-C6F68A33CE99}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{BA56899A-3944-48F2-97D3-C6F68A33CE99}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Ütemterv</t>
   </si>
@@ -88,14 +88,32 @@
   </si>
   <si>
     <t>Specifikáció megkezdése, bővítése és fejlesztési modell kiválasztása</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,10 +154,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -148,29 +175,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABB8216-382A-462A-B1A9-CE1AAF381A86}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,115 +711,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="2"/>
+      <c r="C4" s="11"/>
+      <c r="G4" s="15"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I6" s="10" t="s">
+      <c r="C6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="I6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="G7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11"/>
+      <c r="F9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>45964</v>
       </c>
+      <c r="C13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>46028</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
